--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,351 +43,345 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>garbage</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointment</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>hole</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>loose</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>looked</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>size</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>parts</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>seems</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>looks</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -397,9 +391,6 @@
     <t>love</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -409,28 +400,31 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
@@ -440,6 +434,9 @@
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -800,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -869,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -919,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -969,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1019,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8148148148148148</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1040,16 +1037,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1069,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.765625</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1087,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1119,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.59375</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1169,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1187,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1211,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1219,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1240,16 +1237,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K10">
-        <v>0.4782608695652174</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1269,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7619047619047619</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1287,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11">
-        <v>0.3655737704918033</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L11">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M11">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1311,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1319,13 +1316,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7605633802816901</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1337,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K12">
-        <v>0.3400286944045911</v>
+        <v>0.3357245337159254</v>
       </c>
       <c r="L12">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M12">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1361,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1369,13 +1366,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1387,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K13">
-        <v>0.3207547169811321</v>
+        <v>0.3049792531120332</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1411,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1419,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7475728155339806</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C14">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1437,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K14">
-        <v>0.2800829875518672</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L14">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>347</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1469,13 +1466,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7473118279569892</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C15">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1487,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15">
-        <v>0.2333333333333333</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1511,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1519,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7391304347826086</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1537,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K16">
-        <v>0.2289156626506024</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1561,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>128</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1569,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6857142857142857</v>
+        <v>0.6875</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1587,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17">
-        <v>0.2116402116402116</v>
+        <v>0.1640625</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1619,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6824324324324325</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1637,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K18">
-        <v>0.2079510703363914</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L18">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1661,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>259</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1669,13 +1666,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6818181818181818</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1687,31 +1684,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K19">
-        <v>0.1370967741935484</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>214</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1719,13 +1716,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6818181818181818</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1737,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K20">
-        <v>0.1328125</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1769,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.68</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1787,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K21">
-        <v>0.126984126984127</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1811,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>110</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1819,13 +1816,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.631578947368421</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1837,31 +1834,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22">
+        <v>0.1184210526315789</v>
+      </c>
+      <c r="L22">
+        <v>135</v>
+      </c>
+      <c r="M22">
         <v>136</v>
       </c>
-      <c r="K22">
-        <v>0.1182795698924731</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>164</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1869,13 +1866,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6041666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1887,31 +1884,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23">
-        <v>0.112280701754386</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L23">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1012</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1919,13 +1916,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1937,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K24">
-        <v>0.1118881118881119</v>
+        <v>0.05080213903743316</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1961,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>127</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1969,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5952380952380952</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -1987,31 +1984,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K25">
-        <v>0.06294613887086307</v>
+        <v>0.0428849902534113</v>
       </c>
       <c r="L25">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1444</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2019,13 +2016,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5798319327731093</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C26">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2037,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K26">
-        <v>0.04735376044568245</v>
+        <v>0.04178272980501393</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2061,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2069,13 +2066,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5555555555555556</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2087,31 +2084,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K27">
-        <v>0.032</v>
+        <v>0.03337783711615487</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N27">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O27">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2119,25 +2116,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="L28">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>0.75</v>
+      </c>
+      <c r="O28">
+        <v>0.25</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5555555555555556</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2163,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2171,13 +2192,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5428571428571428</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2189,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2197,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5246376811594203</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C31">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2215,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,25 +2244,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>28</v>
-      </c>
-      <c r="D32">
-        <v>28</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2249,13 +2270,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5172413793103449</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2267,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2275,7 +2296,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5161290322580645</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -2293,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2301,13 +2322,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5116279069767442</v>
+        <v>0.45</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2327,13 +2348,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2345,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2353,13 +2374,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4947368421052631</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2371,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2379,13 +2400,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4881889763779528</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C38">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2397,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2405,13 +2426,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4603174603174603</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2423,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2431,13 +2452,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4578313253012048</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2449,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2457,13 +2478,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.45</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2475,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2483,13 +2504,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4285714285714285</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2501,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2509,13 +2530,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.421875</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2527,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2535,13 +2556,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4181818181818182</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2553,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2561,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4107142857142857</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2579,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2587,13 +2608,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4102564102564102</v>
+        <v>0.328125</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2605,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2613,13 +2634,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.396551724137931</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2631,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2639,13 +2660,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3958333333333333</v>
+        <v>0.3203125</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2657,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2665,13 +2686,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3811881188118812</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C49">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2683,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2691,13 +2712,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3707865168539326</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2709,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2717,13 +2738,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3696682464454976</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C51">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2735,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2743,13 +2764,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3673469387755102</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2761,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2769,13 +2790,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3671875</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2787,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2795,13 +2816,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.360655737704918</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2813,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2821,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3265306122448979</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2839,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2847,13 +2868,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3174603174603174</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2865,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2873,13 +2894,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3043478260869565</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2891,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2899,13 +2920,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2991452991452991</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2917,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2925,13 +2946,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2962962962962963</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2943,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2951,13 +2972,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2959183673469388</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2969,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2977,13 +2998,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2835820895522388</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2995,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>48</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3003,13 +3024,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2567567567567567</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3021,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3029,13 +3050,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2525773195876289</v>
+        <v>0.2427536231884058</v>
       </c>
       <c r="C63">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3047,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3055,13 +3076,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2463768115942029</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3073,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>52</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3081,13 +3102,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2419354838709677</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3099,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3107,13 +3128,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2255192878338279</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C66">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3125,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>522</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3133,13 +3154,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2253521126760563</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3151,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3159,13 +3180,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2197802197802198</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3177,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3185,25 +3206,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2164948453608248</v>
+        <v>0.2175856929955291</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>76</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3211,13 +3232,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2162162162162162</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3229,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3237,13 +3258,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2133333333333333</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3263,13 +3284,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2101449275362319</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D72">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3281,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3289,25 +3310,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2051282051282051</v>
+        <v>0.2</v>
       </c>
       <c r="C73">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3315,13 +3336,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2051282051282051</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3333,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3341,13 +3362,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2025316455696203</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C75">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D75">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3359,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3367,25 +3388,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2025316455696203</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D76">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3393,13 +3414,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3411,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3419,13 +3440,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3437,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3445,13 +3466,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1962616822429906</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>0.05</v>
@@ -3463,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3471,13 +3492,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1869158878504673</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3489,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3497,13 +3518,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1779661016949153</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3515,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>97</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3523,13 +3544,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1724137931034483</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="C82">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3541,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>288</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3549,25 +3570,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1653543307086614</v>
+        <v>0.1328125</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3575,13 +3596,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.16</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C84">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D84">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3593,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>147</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3601,13 +3622,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1497797356828194</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C85">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D85">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3619,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>386</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3627,25 +3648,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1413612565445026</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3653,25 +3674,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1336032388663968</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3679,25 +3700,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1307692307692308</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3705,25 +3726,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.130718954248366</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3731,13 +3752,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1256830601092896</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C90">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3749,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3757,13 +3778,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1161048689138577</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C91">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3775,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>236</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3783,13 +3804,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1145038167938931</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3801,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3809,13 +3830,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1123287671232877</v>
+        <v>0.1070422535211268</v>
       </c>
       <c r="C93">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3827,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3835,25 +3856,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.106951871657754</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3861,13 +3882,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1055900621118012</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3879,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3887,25 +3908,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1041666666666667</v>
+        <v>0.09390444810543658</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>172</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3913,25 +3934,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.09719934102141681</v>
+        <v>0.09375</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D97">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>548</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3939,13 +3960,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.09577464788732394</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C98">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3957,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>321</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3965,25 +3986,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.09411764705882353</v>
+        <v>0.08501118568232663</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D99">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E99">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F99">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>154</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3991,25 +4012,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.09230769230769231</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4017,25 +4038,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.08571428571428572</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>160</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4043,25 +4064,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0779510022271715</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>414</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4069,25 +4090,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.07278481012658228</v>
+        <v>0.06810035842293907</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F103">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4095,25 +4116,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.07259953161592506</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D104">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E104">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F104">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>396</v>
+        <v>746</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4121,25 +4142,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.06785714285714285</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="C105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>261</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4147,25 +4168,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.0468384074941452</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="C106">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F106">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>407</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4173,13 +4194,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.04580152671755725</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4191,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>625</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4199,77 +4220,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.04325699745547074</v>
+        <v>0.02914110429447853</v>
       </c>
       <c r="C108">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E108">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="F108">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109">
-        <v>0.04279279279279279</v>
-      </c>
-      <c r="C109">
-        <v>19</v>
-      </c>
-      <c r="D109">
-        <v>22</v>
-      </c>
-      <c r="E109">
-        <v>0.14</v>
-      </c>
-      <c r="F109">
-        <v>0.86</v>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110">
-        <v>0.03632478632478633</v>
-      </c>
-      <c r="C110">
-        <v>17</v>
-      </c>
-      <c r="D110">
-        <v>18</v>
-      </c>
-      <c r="E110">
-        <v>0.06</v>
-      </c>
-      <c r="F110">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>451</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
